--- a/eRecruit/Library/Excel/DataFiles/GlobalQuestions.xlsx
+++ b/eRecruit/Library/Excel/DataFiles/GlobalQuestions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170" tabRatio="722" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170" tabRatio="722"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalQuestion" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="115">
   <si>
     <t>QuestionType</t>
   </si>
@@ -339,13 +339,40 @@
     <t>Edit_Auto_MS_GQ</t>
   </si>
   <si>
-    <t>Edit_Auto_FU_GQ</t>
-  </si>
-  <si>
-    <t>Edit_Auto_GQ_GQ</t>
-  </si>
-  <si>
     <t>Edit_Auto_Label_GQ</t>
+  </si>
+  <si>
+    <t>Auto_FT_GQ</t>
+  </si>
+  <si>
+    <t>Auto_MC_GQ</t>
+  </si>
+  <si>
+    <t>Auto_YesNo_GQ</t>
+  </si>
+  <si>
+    <t>Auto_Date_GQ</t>
+  </si>
+  <si>
+    <t>Auto_OPL_GQ</t>
+  </si>
+  <si>
+    <t>Auto_MS_GQ</t>
+  </si>
+  <si>
+    <t>Auto_FileUpload_GQ</t>
+  </si>
+  <si>
+    <t>Auto_GroupQue_GQ</t>
+  </si>
+  <si>
+    <t>Auto_Label_GQ</t>
+  </si>
+  <si>
+    <t>Edit_Auto_FileUpload_GQ</t>
+  </si>
+  <si>
+    <t>Edit_Auto_GroupQue_GQ</t>
   </si>
 </sst>
 </file>
@@ -772,9 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -828,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -854,7 +879,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -880,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
@@ -906,7 +931,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -932,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -958,7 +983,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -984,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1010,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -1036,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
@@ -1059,7 +1084,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -1230,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -1295,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
@@ -1360,7 +1385,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -1425,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -1490,7 +1515,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1555,7 +1580,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1620,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -1685,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
@@ -1747,7 +1772,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2275,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>93</v>
@@ -2276,7 +2301,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>94</v>
@@ -2302,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>95</v>
@@ -2323,7 +2348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
